--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_retail_automotive.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_retail_automotive.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.224</v>
+        <v>-0.312</v>
       </c>
       <c r="G2">
-        <v>-0.1874928677393587</v>
+        <v>-0.6802018260451707</v>
       </c>
       <c r="H2">
-        <v>-0.1874928677393587</v>
+        <v>-0.6802018260451707</v>
       </c>
       <c r="I2">
-        <v>-0.104663205142852</v>
+        <v>-0.4887073522345027</v>
       </c>
       <c r="J2">
-        <v>-0.1041791378190664</v>
+        <v>-0.4887073522345027</v>
       </c>
       <c r="K2">
-        <v>-73.62</v>
+        <v>-70.92</v>
       </c>
       <c r="L2">
-        <v>-0.8401232454638823</v>
+        <v>-1.703988467083133</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>18.23</v>
+        <v>21.04</v>
       </c>
       <c r="V2">
-        <v>0.08562705495537812</v>
+        <v>0.1379672131147541</v>
       </c>
       <c r="W2">
-        <v>-0.4498263709274762</v>
+        <v>-116.3967611336032</v>
       </c>
       <c r="X2">
-        <v>0.06105616844501701</v>
+        <v>0.05929950728461264</v>
       </c>
       <c r="Y2">
-        <v>-0.5108825393724932</v>
+        <v>-116.4560606408878</v>
       </c>
       <c r="Z2">
-        <v>0.1915672865975629</v>
+        <v>0.1091197013234893</v>
       </c>
       <c r="AA2">
-        <v>-0.04078347328964224</v>
+        <v>-0.09634447497478348</v>
       </c>
       <c r="AB2">
-        <v>0.06120173688880749</v>
+        <v>0.05424122330220779</v>
       </c>
       <c r="AC2">
-        <v>-0.1041920276141786</v>
+        <v>-0.1505856982769913</v>
       </c>
       <c r="AD2">
-        <v>343.5700000000001</v>
+        <v>176.078</v>
       </c>
       <c r="AE2">
-        <v>9.663183333340617</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>353.2331833333407</v>
+        <v>176.078</v>
       </c>
       <c r="AG2">
-        <v>335.0031833333406</v>
+        <v>155.038</v>
       </c>
       <c r="AH2">
-        <v>0.6239400793529463</v>
+        <v>0.5358788476404386</v>
       </c>
       <c r="AI2">
-        <v>0.7205411533579419</v>
+        <v>0.9214980269837448</v>
       </c>
       <c r="AJ2">
-        <v>0.6114277002284306</v>
+        <v>0.5041263193491536</v>
       </c>
       <c r="AK2">
-        <v>0.7097477202749136</v>
+        <v>0.9117844246580177</v>
       </c>
       <c r="AL2">
-        <v>15.692</v>
+        <v>15.794</v>
       </c>
       <c r="AM2">
-        <v>15.517</v>
+        <v>15.515</v>
       </c>
       <c r="AN2">
-        <v>-67.91263095473414</v>
+        <v>-9.512587790383577</v>
       </c>
       <c r="AO2">
-        <v>-0.8399184297731328</v>
+        <v>-1.287830821831075</v>
       </c>
       <c r="AP2">
-        <v>-66.21924952230493</v>
+        <v>-8.375904916261481</v>
       </c>
       <c r="AQ2">
-        <v>-0.8493909905265193</v>
+        <v>-1.310989365130519</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sinofortune Financial Holdings Limited (SEHK:8123)</t>
+          <t>AVIC Joy Holdings (HK) Limited (SEHK:260)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.419</v>
+        <v>-0.605</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-4.348958333333333</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-4.348958333333333</v>
       </c>
       <c r="I3">
-        <v>0.006241243237276491</v>
+        <v>-3.859375</v>
       </c>
       <c r="J3">
-        <v>0.006241243237276491</v>
+        <v>-3.859375</v>
       </c>
       <c r="K3">
-        <v>-12.9</v>
+        <v>-57.5</v>
       </c>
       <c r="L3">
-        <v>-0.4358108108108108</v>
+        <v>-29.94791666666667</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,61 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.6040816326530613</v>
+      </c>
+      <c r="W3">
+        <v>-116.3967611336032</v>
       </c>
       <c r="X3">
-        <v>0.0608184545162124</v>
+        <v>0.2824091471849559</v>
+      </c>
+      <c r="Y3">
+        <v>-116.6791702807882</v>
       </c>
       <c r="Z3">
-        <v>49.63977614500877</v>
+        <v>0.005927499274498786</v>
       </c>
       <c r="AA3">
-        <v>0.3098139171649549</v>
+        <v>-0.02287644251251875</v>
       </c>
       <c r="AB3">
-        <v>0.06156139923141149</v>
+        <v>0.061019645838779</v>
       </c>
       <c r="AC3">
-        <v>0.2482525179335434</v>
+        <v>-0.08389608835129775</v>
       </c>
       <c r="AD3">
-        <v>1.39</v>
+        <v>154.9</v>
       </c>
       <c r="AE3">
-        <v>0.5962960008830792</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.986296000883079</v>
+        <v>154.9</v>
       </c>
       <c r="AG3">
-        <v>1.986296000883079</v>
+        <v>140.1</v>
       </c>
       <c r="AH3">
-        <v>0.1110512763953483</v>
+        <v>0.8634336677814939</v>
       </c>
       <c r="AI3">
-        <v>0.04846244219873597</v>
+        <v>1.841854934601665</v>
       </c>
       <c r="AJ3">
-        <v>0.1110512763953483</v>
+        <v>0.8511543134872418</v>
       </c>
       <c r="AK3">
-        <v>0.04846244219873597</v>
+        <v>2.021645021645022</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>14.432</v>
       </c>
       <c r="AN3">
-        <v>4.572368421052631</v>
+        <v>-21.97163120567376</v>
+      </c>
+      <c r="AO3">
+        <v>-0.5075342465753425</v>
       </c>
       <c r="AP3">
-        <v>6.533868423957498</v>
+        <v>-19.87234042553191</v>
+      </c>
+      <c r="AQ3">
+        <v>-0.5134423503325942</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AVIC Joy Holdings (HK) Limited (SEHK:260)</t>
+          <t>Auto Italia Holdings Limited (SEHK:720)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,25 +847,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.414</v>
+        <v>-0.312</v>
       </c>
       <c r="G4">
-        <v>-0.6912408759124088</v>
+        <v>-0.2594871794871795</v>
       </c>
       <c r="H4">
-        <v>-0.6912408759124088</v>
+        <v>-0.2594871794871795</v>
       </c>
       <c r="I4">
-        <v>-0.2730308124448508</v>
+        <v>-0.2841025641025641</v>
       </c>
       <c r="J4">
-        <v>-0.2730308124448508</v>
+        <v>-0.2841025641025641</v>
       </c>
       <c r="K4">
-        <v>-61.7</v>
+        <v>-5.6</v>
       </c>
       <c r="L4">
-        <v>-4.503649635036497</v>
+        <v>-0.2871794871794872</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -877,73 +889,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>4.93</v>
+        <v>6.24</v>
       </c>
       <c r="V4">
-        <v>0.1956349206349206</v>
+        <v>0.05426086956521739</v>
       </c>
       <c r="W4">
-        <v>-0.8839541547277938</v>
+        <v>-0.08945686900958466</v>
       </c>
       <c r="X4">
-        <v>0.4726413111030221</v>
+        <v>0.05929950728461264</v>
       </c>
       <c r="Y4">
-        <v>-1.356595465830816</v>
+        <v>-0.1487563762941973</v>
       </c>
       <c r="Z4">
-        <v>0.03412522022345802</v>
+        <v>0.3391186393516747</v>
       </c>
       <c r="AA4">
-        <v>-0.009317236602470197</v>
+        <v>-0.09634447497478348</v>
       </c>
       <c r="AB4">
-        <v>0.06597503410286928</v>
+        <v>0.05424122330220779</v>
       </c>
       <c r="AC4">
-        <v>-0.07529227070533948</v>
+        <v>-0.1505856982769913</v>
       </c>
       <c r="AD4">
-        <v>332.1</v>
+        <v>20.6</v>
       </c>
       <c r="AE4">
-        <v>0.8326106524722809</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>332.9326106524723</v>
+        <v>20.6</v>
       </c>
       <c r="AG4">
-        <v>328.0026106524723</v>
+        <v>14.36</v>
       </c>
       <c r="AH4">
-        <v>0.9296350032070836</v>
+        <v>0.1519174041297935</v>
       </c>
       <c r="AI4">
-        <v>0.9309347099109984</v>
+        <v>0.2647814910025707</v>
       </c>
       <c r="AJ4">
-        <v>0.9286528489881546</v>
+        <v>0.1110080395794681</v>
       </c>
       <c r="AK4">
-        <v>0.9299693303820266</v>
+        <v>0.2006707657909447</v>
       </c>
       <c r="AL4">
-        <v>15.2</v>
+        <v>1.17</v>
       </c>
       <c r="AM4">
-        <v>15.078</v>
+        <v>1.109</v>
       </c>
       <c r="AN4">
-        <v>-104.3027638190955</v>
+        <v>-4.63963963963964</v>
       </c>
       <c r="AO4">
-        <v>-0.2736842105263158</v>
+        <v>-4.735042735042735</v>
       </c>
       <c r="AP4">
-        <v>-103.0158953054247</v>
+        <v>-3.234234234234234</v>
       </c>
       <c r="AQ4">
-        <v>-0.2758986602997745</v>
+        <v>-4.995491433724076</v>
       </c>
     </row>
     <row r="5">
@@ -954,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auto Italia Holdings Limited (SEHK:720)</t>
+          <t>Sinofortune Financial Holdings Limited (SEHK:8123)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -963,25 +975,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.251</v>
+        <v>0.339</v>
       </c>
       <c r="G5">
-        <v>-0.1131506849315068</v>
+        <v>-0.7376237623762376</v>
       </c>
       <c r="H5">
-        <v>-0.1131506849315068</v>
+        <v>-0.7376237623762376</v>
       </c>
       <c r="I5">
-        <v>-0.1089086901524016</v>
+        <v>-0.3658415841584158</v>
       </c>
       <c r="J5">
-        <v>-0.1089086901524016</v>
+        <v>-0.3658415841584158</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>-7.82</v>
       </c>
       <c r="L5">
-        <v>-0.0273972602739726</v>
+        <v>-0.3871287128712871</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1005,195 +1017,58 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.08412397216951298</v>
-      </c>
-      <c r="W5">
-        <v>-0.01569858712715855</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.06015072352613644</v>
-      </c>
-      <c r="Y5">
-        <v>-0.075849310653295</v>
-      </c>
-      <c r="Z5">
-        <v>0.6633971070234292</v>
-      </c>
-      <c r="AA5">
-        <v>-0.07224970997681429</v>
+        <v>0.0544086769060776</v>
       </c>
       <c r="AB5">
-        <v>0.06084207454620348</v>
-      </c>
-      <c r="AC5">
-        <v>-0.1330917845230178</v>
+        <v>0.05334806747920273</v>
       </c>
       <c r="AD5">
-        <v>8.52</v>
+        <v>0.578</v>
       </c>
       <c r="AE5">
-        <v>7.875835952813299</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>16.3958359528133</v>
+        <v>0.578</v>
       </c>
       <c r="AG5">
-        <v>3.095835952813299</v>
+        <v>0.578</v>
       </c>
       <c r="AH5">
-        <v>0.09396118745920687</v>
+        <v>0.04256886139343055</v>
       </c>
       <c r="AI5">
-        <v>0.2075531672657664</v>
+        <v>0.01980944547261635</v>
       </c>
       <c r="AJ5">
-        <v>0.01920543377882007</v>
+        <v>0.04256886139343055</v>
       </c>
       <c r="AK5">
-        <v>0.04712377744971409</v>
+        <v>0.01980944547261635</v>
       </c>
       <c r="AL5">
-        <v>0.4</v>
+        <v>0.024</v>
       </c>
       <c r="AM5">
-        <v>0.347</v>
+        <v>-0.026</v>
       </c>
       <c r="AN5">
-        <v>-8.968421052631577</v>
+        <v>-0.08233618233618234</v>
       </c>
       <c r="AO5">
-        <v>-18.025</v>
+        <v>-307.9166666666666</v>
       </c>
       <c r="AP5">
-        <v>-3.258774687171893</v>
+        <v>-0.08233618233618234</v>
       </c>
       <c r="AQ5">
-        <v>-20.77809798270893</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Phoenitron Holdings Limited (SEHK:8066)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retail (Automotive)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>-0.197</v>
-      </c>
-      <c r="G6">
-        <v>-0.3614303959131546</v>
-      </c>
-      <c r="H6">
-        <v>-0.3614303959131546</v>
-      </c>
-      <c r="I6">
-        <v>-0.209538715892004</v>
-      </c>
-      <c r="J6">
-        <v>-0.205662249648002</v>
-      </c>
-      <c r="K6">
-        <v>1.98</v>
-      </c>
-      <c r="L6">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>-0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>-0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0.06129388237382162</v>
-      </c>
-      <c r="Z6">
-        <v>21.84461587771423</v>
-      </c>
-      <c r="AA6">
-        <v>-4.492612844107171</v>
-      </c>
-      <c r="AB6">
-        <v>0.05769824973170492</v>
-      </c>
-      <c r="AC6">
-        <v>-4.550311093838876</v>
-      </c>
-      <c r="AD6">
-        <v>1.56</v>
-      </c>
-      <c r="AE6">
-        <v>0.3584407271719586</v>
-      </c>
-      <c r="AF6">
-        <v>1.918440727171959</v>
-      </c>
-      <c r="AG6">
-        <v>1.918440727171959</v>
-      </c>
-      <c r="AH6">
-        <v>0.1228317705130691</v>
-      </c>
-      <c r="AI6">
-        <v>0.1520346902324372</v>
-      </c>
-      <c r="AJ6">
-        <v>0.1228317705130691</v>
-      </c>
-      <c r="AK6">
-        <v>0.1520346902324372</v>
-      </c>
-      <c r="AL6">
-        <v>0.092</v>
-      </c>
-      <c r="AM6">
-        <v>0.092</v>
-      </c>
-      <c r="AN6">
-        <v>-1.269324654190399</v>
-      </c>
-      <c r="AO6">
-        <v>-19.67391304347826</v>
-      </c>
-      <c r="AP6">
-        <v>-1.560976995257899</v>
-      </c>
-      <c r="AQ6">
-        <v>-19.67391304347826</v>
+        <v>284.2307692307692</v>
       </c>
     </row>
   </sheetData>
